--- a/biology/Botanique/Hammada/Hammada.xlsx
+++ b/biology/Botanique/Hammada/Hammada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hammada  est un genre de plantes de la famille des Amaranthaceae, dont les espèces sont originaires notamment d’Afrique du Nord et du Moyen-Orient.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (26 septembre 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (26 septembre 2020) :
 Hammada articulata (Moqu.) O.Bolos &amp; Vigo
 Hammada eriantha Botsch.
 Hammada griffithii (Moq.) Iljin
@@ -522,11 +536,11 @@
 Hammada scoparia Haloxylon scoparium Pomel
 Hammada tamariscifolia Haloxylon tamariscifolium (L.) Pau
 Hammada thomsonii Haloxylon thomsonii Bunge ex Boiss.
-Selon The Plant List            (26 septembre 2020)[3] :
+Selon The Plant List            (26 septembre 2020) :
 Hammada griffithii (Moq.) Iljin
 Hammada leptoclada Iljin
 Hammada wakhanica (Paulsen) Iljin
-Selon Tropicos                                           (26 septembre 2020)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 septembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Hammada articulata O. Bolòs &amp; Vigo
 Hammada eigii
 Hammada elegans Botsch.
